--- a/fuentes/educativas/productos/EF_MallaCurricular.xlsx
+++ b/fuentes/educativas/productos/EF_MallaCurricular.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MPinto\Documents\Mediateca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CésarAlejandro\Documents\GitHub\EduFinanciera\fuentes\educativas\productos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ProductosIdeasIniciales" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
   <si>
     <t>Productos</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>Toma de decisiones como parte de un momento de aprendizaje al interior del desarrollo de las competencias</t>
+  </si>
+  <si>
+    <t>Revisar</t>
   </si>
 </sst>
 </file>
@@ -548,6 +551,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -565,9 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,7 +889,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -901,7 +904,7 @@
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
@@ -914,7 +917,7 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
@@ -927,7 +930,7 @@
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
@@ -940,11 +943,11 @@
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -953,29 +956,29 @@
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="12" t="s">
         <v>64</v>
       </c>
@@ -998,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1020,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1045,7 +1048,7 @@
       <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1257,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1275,7 @@
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -1286,7 +1289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -1299,8 +1302,11 @@
       <c r="D2" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1332,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>55</v>
       </c>

--- a/fuentes/educativas/productos/EF_MallaCurricular.xlsx
+++ b/fuentes/educativas/productos/EF_MallaCurricular.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProductosIdeasIniciales" sheetId="1" r:id="rId1"/>
     <sheet name="PropDidacticaV0" sheetId="2" r:id="rId2"/>
     <sheet name="ProyectosDefinidos" sheetId="3" r:id="rId3"/>
-    <sheet name="P1_CompraTV" sheetId="4" r:id="rId4"/>
+    <sheet name="P1_Bicicleta" sheetId="4" r:id="rId4"/>
     <sheet name="P2_CompraCarro" sheetId="5" r:id="rId5"/>
     <sheet name="P3_CompraCasa" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
   <si>
     <t>Productos</t>
   </si>
@@ -191,9 +191,6 @@
     <t xml:space="preserve">Videos, mapas conceptuales, diálogos </t>
   </si>
   <si>
-    <t xml:space="preserve">Comprar un televisor de 42 pulgadas LED 3D </t>
-  </si>
-  <si>
     <t>Comprar un carro</t>
   </si>
   <si>
@@ -233,26 +230,13 @@
     <t>Planeación</t>
   </si>
   <si>
-    <t>1. Identificar la necesidad de adquirir un televisor</t>
-  </si>
-  <si>
     <t>Observaciones para la representación virtual</t>
   </si>
   <si>
     <t>Esta pregunta puede ser una animación en la cual cada opción es explicada</t>
   </si>
   <si>
-    <t>Pregunta con varias opciones sobre cuál es una posible razón para adquirir un televisor:
-* Enterarse de las noticias del país y del mundo. Esta sería una razón si las necesidades en el hogar muestran que se requiere
-* Entretenimiento
-* Educación
-* Mejorar relaciones sociales (invitar a la casa a amigos y familiares)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3. Determinar una estrategia para obtener el dinero </t>
-  </si>
-  <si>
-    <t>2. Determinar qué tipo de televisor es posible adquirir, cuánto dinero se requiere para ello y qué tiempo se necesita para adquirirlo</t>
   </si>
   <si>
     <t>Dimensiones</t>
@@ -279,12 +263,6 @@
   </si>
   <si>
     <t>Largo</t>
-  </si>
-  <si>
-    <t>Alternativas. En cada una el estudiante podrá determinar las ventajas y las desventajas:
-Alternativa 1. Comprarlo con una tarjeta de crédito.
-Alternativa 2.  Ahorrar para comprarlo
-Alternativa 3. Comprarlo con algún plan de financiación de la tienda donde lo venden (plan separe o pago por cuotas con la tienda por ejemplo)</t>
   </si>
   <si>
     <t>Ejecución</t>
@@ -313,12 +291,6 @@
     <t xml:space="preserve">5. Después de elegida una </t>
   </si>
   <si>
-    <t>Presentación de algunos televisores</t>
-  </si>
-  <si>
-    <t>Puede ser un enlace a páginas de televisores…</t>
-  </si>
-  <si>
     <t>1. Identificar la necesidad de adquirir un carro</t>
   </si>
   <si>
@@ -394,14 +366,90 @@
     <t>Toma de decisiones como parte de un momento de aprendizaje al interior del desarrollo de las competencias</t>
   </si>
   <si>
-    <t>Revisar</t>
+    <t>1. Identificar la necesidad de adquirir una bicicleta</t>
+  </si>
+  <si>
+    <t>* Pregunta con varias opciones sobre cuál es una posible razón para adquirir una bicicleta.
+* Posibles situaciones en las cuales una bicicleta es un elemento imprescindible.</t>
+  </si>
+  <si>
+    <t>Momentos</t>
+  </si>
+  <si>
+    <t>Motivación</t>
+  </si>
+  <si>
+    <t>Presentación de algunas bicicletas</t>
+  </si>
+  <si>
+    <t>Fundamentación</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>3. Determinar una estrategia para conseguir la bicicleta.</t>
+  </si>
+  <si>
+    <t>Varios planes que tengan el mismo producto y que tengan pasos en común: dar todos los posibles pasos, es necesario que los caminos puedan ser evaluados según la eficiencia y la secuencialidad.</t>
+  </si>
+  <si>
+    <t>Personajes</t>
+  </si>
+  <si>
+    <t>Avatar: estudiante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conseguir una bicicleta </t>
+  </si>
+  <si>
+    <t>Guión Intro</t>
+  </si>
+  <si>
+    <t>Introducción al espacio virtual y a la estructura de plataforma y del juego</t>
+  </si>
+  <si>
+    <t>Puede ser un enlace a páginas de bicicletas</t>
+  </si>
+  <si>
+    <t>El  amigo: acompaña al estudiante y le cuestiona las decisiones.</t>
+  </si>
+  <si>
+    <t>El tutor: acompaña al estudiante, principalmente en la fundamentación, le explica y soluciona dudas.</t>
+  </si>
+  <si>
+    <t>Podría ir en algún proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. </t>
+  </si>
+  <si>
+    <t>Contenidos a desarrollar</t>
+  </si>
+  <si>
+    <t>Resultados esperados. El estudiante…</t>
+  </si>
+  <si>
+    <t>continúa en el juego</t>
+  </si>
+  <si>
+    <t>conoce la necesidad de planear</t>
+  </si>
+  <si>
+    <t>¿Qué es planear?</t>
+  </si>
+  <si>
+    <t>Planear</t>
+  </si>
+  <si>
+    <t>Elementos de la planeación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +477,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -444,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -504,11 +559,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -571,6 +655,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,7 +1057,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>12</v>
@@ -958,7 +1070,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="12" t="s">
@@ -969,7 +1081,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="12" t="s">
@@ -980,7 +1092,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>18</v>
@@ -999,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -1024,7 +1136,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1032,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1049,17 +1161,69 @@
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:A10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1068,7 +1232,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1249,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>20</v>
@@ -1094,7 +1258,7 @@
         <v>22</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>23</v>
@@ -1105,13 +1269,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -1121,18 +1285,18 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -1142,13 +1306,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1158,13 +1322,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1174,13 +1338,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1190,13 +1354,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -1206,13 +1370,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1222,13 +1386,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1238,13 +1402,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1260,103 +1424,145 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="3" width="32.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="75.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>39</v>
+      <c r="F4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1366,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,59 +1593,59 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -1458,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,59 +1685,59 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D5" s="5"/>
     </row>
